--- a/Dossier/OrganisationProjetAnnuel.xlsx
+++ b/Dossier/OrganisationProjetAnnuel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="15255" windowHeight="8190"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Liste des taches</t>
   </si>
@@ -133,13 +133,16 @@
   </si>
   <si>
     <t>Visé auto</t>
+  </si>
+  <si>
+    <t>Bonus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +179,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -254,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,6 +297,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,14 +473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -478,7 +488,7 @@
     <col min="6" max="6" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -500,7 +510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -508,7 +518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -516,7 +526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -524,7 +534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -532,7 +542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -540,7 +550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -548,7 +558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -556,7 +566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -564,7 +574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -572,12 +582,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -585,7 +595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -593,7 +603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -601,12 +611,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -614,7 +624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -622,7 +632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -630,7 +640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -638,12 +648,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -651,7 +661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -659,7 +669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -667,7 +677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -675,7 +685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -683,12 +693,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -696,7 +706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -704,12 +714,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -717,7 +730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -725,13 +738,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>35</v>
       </c>
     </row>
@@ -741,24 +762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dossier/OrganisationProjetAnnuel.xlsx
+++ b/Dossier/OrganisationProjetAnnuel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="15255" windowHeight="8190"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Liste des taches</t>
   </si>
@@ -132,17 +132,20 @@
     <t>Changement de cible Gachette haute gauche</t>
   </si>
   <si>
-    <t>Visé auto</t>
-  </si>
-  <si>
     <t>Bonus</t>
+  </si>
+  <si>
+    <t>Attaque a distance sur X</t>
+  </si>
+  <si>
+    <t>Visé auto Clic Joystick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +265,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -297,7 +299,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,14 +474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -488,7 +489,7 @@
     <col min="6" max="6" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -510,7 +511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -518,7 +519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -526,7 +527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -534,7 +535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -542,7 +543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -550,7 +551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -558,7 +559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -566,15 +567,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -582,177 +583,185 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>35</v>
       </c>
     </row>
@@ -762,24 +771,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dossier/OrganisationProjetAnnuel.xlsx
+++ b/Dossier/OrganisationProjetAnnuel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Liste des taches</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Camera gestion</t>
   </si>
   <si>
-    <t>remarques</t>
-  </si>
-  <si>
     <t>projectil object pulling</t>
   </si>
   <si>
@@ -139,14 +136,37 @@
   </si>
   <si>
     <t>Visé auto Clic Joystick</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>TODO (Direction)</t>
+  </si>
+  <si>
+    <t>BETA</t>
+  </si>
+  <si>
+    <t>MANUELLE</t>
+  </si>
+  <si>
+    <t>TODO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -504,11 +525,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -516,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -524,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -532,7 +550,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -540,15 +558,15 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -556,23 +574,23 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -580,144 +598,144 @@
         <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>26</v>
+      <c r="F32" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
         <v>24</v>
@@ -725,7 +743,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
@@ -733,40 +751,39 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Dossier/OrganisationProjetAnnuel.xlsx
+++ b/Dossier/OrganisationProjetAnnuel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Liste des taches</t>
   </si>
@@ -141,16 +141,31 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>TODO (Direction)</t>
-  </si>
-  <si>
-    <t>BETA</t>
-  </si>
-  <si>
-    <t>MANUELLE</t>
-  </si>
-  <si>
-    <t>TODO</t>
+    <t>Effets</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Combos</t>
+  </si>
+  <si>
+    <t>End Screen</t>
+  </si>
+  <si>
+    <t>Combo points</t>
+  </si>
+  <si>
+    <t>Regen vie</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Direction</t>
   </si>
 </sst>
 </file>
@@ -174,12 +189,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,9 +239,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -533,7 +583,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -541,7 +591,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -549,55 +599,51 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
+      <c r="F9" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -605,7 +651,7 @@
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -613,145 +659,139 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>18</v>
       </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>44</v>
+      <c r="D33" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
@@ -759,25 +799,87 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Dossier/OrganisationProjetAnnuel.xlsx
+++ b/Dossier/OrganisationProjetAnnuel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="15255" windowHeight="8190"/>
@@ -11,12 +11,12 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
   <si>
     <t>Liste des taches</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Option</t>
-  </si>
-  <si>
-    <t>Direction</t>
   </si>
 </sst>
 </file>
@@ -189,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,12 +213,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -239,14 +230,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -599,27 +589,31 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>49</v>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Dossier/OrganisationProjetAnnuel.xlsx
+++ b/Dossier/OrganisationProjetAnnuel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>Liste des taches</t>
   </si>
@@ -186,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +202,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,13 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -613,7 +606,7 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -661,7 +654,9 @@
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -776,7 +771,9 @@
       <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
@@ -806,7 +803,9 @@
       <c r="D39" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
